--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79536F5-7EBF-4079-A60F-0B1041BAF5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC946B-1591-4CF3-A597-FAD9A543B6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -449,7 +449,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -609,7 +609,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -777,7 +777,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13:U13"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2173,9 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2203,7 +2205,9 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2233,7 +2237,9 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2263,7 +2269,9 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2293,7 +2301,9 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2331,7 +2341,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="0"/>
@@ -2396,7 +2406,7 @@
       </c>
       <c r="G15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="1"/>
@@ -2461,7 +2471,7 @@
       </c>
       <c r="G16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC946B-1591-4CF3-A597-FAD9A543B6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B46173-F48D-4F25-A396-F0BFEA435DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -452,7 +452,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -612,7 +612,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -780,7 +780,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588172F2-772D-498D-A397-63CF09A85271}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,7 +2176,9 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2208,7 +2210,9 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2240,7 +2244,9 @@
       <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2272,7 +2278,9 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2304,7 +2312,9 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2345,7 +2355,7 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
@@ -2410,7 +2420,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
@@ -2475,7 +2485,7 @@
       </c>
       <c r="H16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B46173-F48D-4F25-A396-F0BFEA435DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D91631CE-4940-1945-9579-608114B44E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -455,7 +455,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -615,7 +615,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -783,7 +783,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2023,17 +2023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588172F2-772D-498D-A397-63CF09A85271}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="17" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.984375" customWidth="1"/>
+    <col min="2" max="17" width="15.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2042,10 +2042,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F4" s="18" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -2104,7 +2104,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2179,9 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2188,7 +2190,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2215,9 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -2222,7 +2226,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2251,9 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2256,7 +2262,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2287,9 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2290,7 +2298,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -2315,7 +2323,9 @@
       <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2324,8 +2334,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2369,7 @@
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="0"/>
@@ -2390,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2434,7 @@
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="1"/>
@@ -2455,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2499,7 @@
       </c>
       <c r="I16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D91631CE-4940-1945-9579-608114B44E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06721D22-1FA9-458A-AC32-962E79D4D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -458,7 +458,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -618,7 +618,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -786,7 +786,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2023,17 +2023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588172F2-772D-498D-A397-63CF09A85271}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.984375" customWidth="1"/>
-    <col min="2" max="17" width="15.06640625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="17" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2042,10 +2042,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.3">
       <c r="F4" s="18" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -2104,7 +2104,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,9 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2190,7 +2192,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2220,9 @@
       <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2226,7 +2230,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2258,9 @@
       <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2262,7 +2268,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2296,9 @@
       <c r="I11" s="4">
         <v>2</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2298,7 +2306,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -2326,7 +2334,9 @@
       <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2334,8 +2344,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +2383,7 @@
       </c>
       <c r="J14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="0"/>
@@ -2400,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2448,7 @@
       </c>
       <c r="J15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" si="1"/>
@@ -2465,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
@@ -2503,7 +2513,7 @@
       </c>
       <c r="J16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06721D22-1FA9-458A-AC32-962E79D4D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612C0E5-1574-4B64-9AF5-04B55E21D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -461,7 +461,7 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -621,7 +621,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -789,7 +789,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588172F2-772D-498D-A397-63CF09A85271}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,7 +2185,9 @@
       <c r="J8" s="4">
         <v>2</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2223,7 +2225,9 @@
       <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2261,7 +2265,9 @@
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2299,7 +2305,9 @@
       <c r="J11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2337,7 +2345,9 @@
       <c r="J12" s="4">
         <v>2</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2387,7 +2397,7 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
@@ -2452,7 +2462,7 @@
       </c>
       <c r="K15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="1"/>
@@ -2517,7 +2527,7 @@
       </c>
       <c r="K16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612C0E5-1574-4B64-9AF5-04B55E21D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8E951-EA47-4E94-8586-FADA397ADF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -464,7 +464,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -624,7 +624,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -792,7 +792,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2188,7 +2188,9 @@
       <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2228,7 +2230,9 @@
       <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2268,7 +2272,9 @@
       <c r="K10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2308,7 +2314,9 @@
       <c r="K11" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2348,7 +2356,9 @@
       <c r="K12" s="4">
         <v>2</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2401,7 +2411,7 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="0"/>
@@ -2466,7 +2476,7 @@
       </c>
       <c r="L15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" si="1"/>
@@ -2531,7 +2541,7 @@
       </c>
       <c r="L16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8E951-EA47-4E94-8586-FADA397ADF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2E0B4-1F6F-4043-8647-7EB6510BCB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -467,7 +467,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -627,7 +627,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -795,7 +795,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2191,7 +2191,9 @@
       <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -2233,7 +2235,9 @@
       <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2275,7 +2279,9 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2317,7 +2323,9 @@
       <c r="L11" s="4">
         <v>2</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2359,7 +2367,9 @@
       <c r="L12" s="4">
         <v>2</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2415,7 +2425,7 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="0"/>
@@ -2480,7 +2490,7 @@
       </c>
       <c r="M15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="16">
         <f t="shared" si="1"/>
@@ -2545,7 +2555,7 @@
       </c>
       <c r="M16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2E0B4-1F6F-4043-8647-7EB6510BCB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD21EA39-2D8C-4ECC-BD74-06F526DAF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -470,7 +470,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -630,7 +630,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -798,7 +798,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2194,9 @@
       <c r="M8" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
@@ -2238,7 +2240,9 @@
       <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
@@ -2282,7 +2286,9 @@
       <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
@@ -2326,7 +2332,9 @@
       <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
@@ -2370,7 +2378,9 @@
       <c r="M12" s="4">
         <v>2</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
@@ -2429,7 +2439,7 @@
       </c>
       <c r="N14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="0"/>
@@ -2494,7 +2504,7 @@
       </c>
       <c r="N15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="16">
         <f t="shared" si="1"/>
@@ -2559,7 +2569,7 @@
       </c>
       <c r="N16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="17">
         <f t="shared" si="2"/>

--- a/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Happiness_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soplu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD21EA39-2D8C-4ECC-BD74-06F526DAF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3ED8D8-AF2B-4C02-958A-D14FCBE43508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723A3285-CF4B-4CFB-AE2E-CC9F88315716}"/>
   </bookViews>
@@ -473,10 +473,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,10 +633,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,10 +801,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,8 +2197,12 @@
       <c r="N8" s="4">
         <v>2</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -2243,8 +2247,12 @@
       <c r="N9" s="4">
         <v>2</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -2289,8 +2297,12 @@
       <c r="N10" s="4">
         <v>2</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -2335,8 +2347,12 @@
       <c r="N11" s="4">
         <v>2</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -2381,8 +2397,12 @@
       <c r="N12" s="4">
         <v>2</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="O12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2443,11 +2463,11 @@
       </c>
       <c r="O14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.3">
@@ -2508,11 +2528,11 @@
       </c>
       <c r="O15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.3">
@@ -2573,11 +2593,11 @@
       </c>
       <c r="O16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
